--- a/biology/Zoologie/Bikini_Girls_on_Dinosaur_Planet/Bikini_Girls_on_Dinosaur_Planet.xlsx
+++ b/biology/Zoologie/Bikini_Girls_on_Dinosaur_Planet/Bikini_Girls_on_Dinosaur_Planet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bikini Girls on Dinosaur Planet est un vidéofilm américain réalisé par William Hellfire et sorti en 2005. C'est une comédie érotique.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Quand un couple de lesbiennes extraterrestres tombe sur la Terre telle qu'elle était il y a un million d'années, 
 elles sont confrontées à trois femmes des cavernes obsédées de sexe et à une terre peuplée de dinosaures grondants.
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Bikini Girls on Dinosaur Planet
 Réalisateur : William Hellfire
@@ -581,7 +597,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Tina Krause : Eegads
 Ruby Larocca : Eeek
